--- a/map/中国象棋.xlsx
+++ b/map/中国象棋.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X\Desktop\精班棋重制版\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95310D3-0472-4A0B-9CBB-AA2F362CEDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8310AAB4-2B8E-4C93-8A63-5D9EE647C8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1548" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chesses" sheetId="1" r:id="rId1"/>
@@ -97,10 +97,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>车</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>炮</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -178,6 +174,9 @@
   <si>
     <t>c</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>車</t>
   </si>
 </sst>
 </file>
@@ -617,7 +616,7 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -667,7 +666,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
@@ -688,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
@@ -707,7 +706,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
@@ -726,7 +725,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -745,7 +744,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -764,7 +763,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -776,14 +775,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -795,14 +794,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -814,14 +813,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
@@ -833,14 +832,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
@@ -852,14 +851,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
@@ -871,14 +870,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
@@ -890,20 +889,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -911,20 +910,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1134,9 +1133,7 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1176,7 +1173,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/map/中国象棋.xlsx
+++ b/map/中国象棋.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X\Desktop\精班棋重制版\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8310AAB4-2B8E-4C93-8A63-5D9EE647C8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D47CB4C-1D78-4858-8653-7229E4C40898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,14 +145,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1(P[-2|5]&amp;P[-1|6]),3(P[-1|4]&amp;P[-2|5]),6(P[-2|5]&amp;P[-3|6]),8(P[-3|4]&amp;P[-2|5]);</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1(P[2|5]&amp;P[3|6]),3(P[3|4]&amp;P[2|5]),6(P[2|5]&amp;P[1|6]),8(P[1|4]&amp;P[2|5]);</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -177,6 +169,12 @@
   </si>
   <si>
     <t>車</t>
+  </si>
+  <si>
+    <t>1(P[-2|5|-1|6]),3(P[-1|4|-2|5]),6(P[-2|5|-3|6]),8(P[-3|4|-2|5]);</t>
+  </si>
+  <si>
+    <t>1(P[2|5|3|6]),3(P[3|4|2|5]),6(P[2|5|1|6]),8(P[1|4|2|5]);</t>
   </si>
 </sst>
 </file>
@@ -706,7 +704,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
@@ -725,7 +723,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -744,7 +742,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -763,7 +761,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -775,14 +773,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -794,14 +792,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -820,7 +818,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
@@ -839,7 +837,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
@@ -858,7 +856,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
@@ -877,7 +875,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
@@ -1173,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
